--- a/pred_ohlcv/54_21/2020-01-21 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>52886.24588705627</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42209.04278705627</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>41445.52398705627</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>40759.42098705627</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>40759.42098705627</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>37455.23698705627</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>56939.17668705627</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8257.387312943727</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7960.090612943727</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9853.926712943727</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-10008.96471294373</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-21080.63121294372</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-129951.6382129437</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-68829.60681294373</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-68938.84681294374</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-86188.99611294374</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-129444.2153129438</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-127588.0246129438</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-126857.5055129438</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-126228.7675984599</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-120239.2865984599</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-124025.9935984599</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-124817.3450984599</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-98817.34509845993</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-102349.2959984599</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-101572.0029984599</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-101489.0022984599</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-101577.3552984599</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-101637.3552984599</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-100011.2548984599</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-129235.2684984599</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-75935.26849845992</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-40146.47245627592</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-40940.47994691262</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-43186.61648104616</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-43716.85658104616</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-124901.4027810462</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-143178.7639810462</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-152151.3493810462</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-152129.8607810462</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-166448.5617810462</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-195558.1283810461</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-187835.3912810461</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>52886.24588705627</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42209.04278705627</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>41939.75588705627</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>57455.23698705627</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>56939.17668705627</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-104696.9153129437</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-68829.60681294373</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-68938.84681294374</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-62188.99611294374</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-86188.99611294374</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-127588.0246129438</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-126857.5055129438</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-126228.7675984599</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-124817.3450984599</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-98817.34509845993</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-102349.2959984599</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-101572.0029984599</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-101288.5989984599</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-100011.2548984599</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-77460.62049845992</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-40109.07529845992</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-40109.07529845992</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-40146.47245627592</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-40940.47994691262</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-43186.61648104616</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-43716.85658104616</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-124107.3952810462</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-124901.4027810462</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-124891.4027810462</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-124962.4990810462</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-133132.3627810462</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-133132.3627810462</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-148314.2697810462</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-143178.7639810462</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-152151.3493810462</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-152129.8607810462</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-166448.5617810462</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-195558.1283810461</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-187835.3912810461</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
